--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_80__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_80__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5908,7 +5908,7 @@
                   <c:v>367.513916015625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>322.1644592285156</c:v>
+                  <c:v>322.1644287109375</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>329.80810546875</c:v>
@@ -5923,7 +5923,7 @@
                   <c:v>357.4554443359375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>357.5013732910156</c:v>
+                  <c:v>357.5013427734375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>353.8241882324219</c:v>
@@ -5953,7 +5953,7 @@
                   <c:v>358.9098815917969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>350.480712890625</c:v>
+                  <c:v>350.4807434082031</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>348.7650146484375</c:v>
@@ -5986,13 +5986,13 @@
                   <c:v>350.3377075195312</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>357.1443176269531</c:v>
+                  <c:v>357.1443481445312</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>362.3358459472656</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332.1063537597656</c:v>
+                  <c:v>332.1063842773438</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>360.0237121582031</c:v>
@@ -6010,7 +6010,7 @@
                   <c:v>344.1079711914062</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>348.7877197265625</c:v>
+                  <c:v>348.7876892089844</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>329.7630615234375</c:v>
@@ -6046,7 +6046,7 @@
                   <c:v>365.9573974609375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>361.32275390625</c:v>
+                  <c:v>361.3227844238281</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>362.3010864257812</c:v>
@@ -6079,7 +6079,7 @@
                   <c:v>367.240234375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>360.7233581542969</c:v>
+                  <c:v>360.723388671875</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>365.6574401855469</c:v>
@@ -6088,13 +6088,13 @@
                   <c:v>373.3374633789062</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>357.8462829589844</c:v>
+                  <c:v>357.8462524414062</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>353.8958435058594</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>366.5307312011719</c:v>
+                  <c:v>366.53076171875</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>353.9160766601562</c:v>
@@ -6121,7 +6121,7 @@
                   <c:v>341.1233825683594</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>346.2941589355469</c:v>
+                  <c:v>346.2941284179688</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>365.696044921875</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>361.3560180664062</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>349.1377258300781</c:v>
+                  <c:v>349.1376953125</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>362.6305847167969</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6908,13 +6920,19 @@
         <v>352.104248046875</v>
       </c>
       <c r="G3">
+        <v>394</v>
+      </c>
+      <c r="H3">
+        <v>394</v>
+      </c>
+      <c r="R3">
         <v>379</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>350.5927429199219</v>
       </c>
       <c r="G4">
+        <v>394</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>379</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6960,13 +6984,19 @@
         <v>366.1178894042969</v>
       </c>
       <c r="G5">
+        <v>394</v>
+      </c>
+      <c r="H5">
+        <v>394</v>
+      </c>
+      <c r="R5">
         <v>379</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>367.513916015625</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>394</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>379</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7009,16 +7045,22 @@
         <v>338.239</v>
       </c>
       <c r="F7">
-        <v>322.1644592285156</v>
+        <v>322.1644287109375</v>
       </c>
       <c r="G7">
+        <v>394</v>
+      </c>
+      <c r="H7">
+        <v>394</v>
+      </c>
+      <c r="R7">
         <v>379</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>329.80810546875</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>354.6421203613281</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>364.7332763671875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>357.4554443359375</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7115,10 +7157,10 @@
         <v>363.455</v>
       </c>
       <c r="F12">
-        <v>357.5013732910156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>357.5013427734375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>353.8241882324219</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>334.3015747070312</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>345.0116577148438</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7315,7 +7357,7 @@
         <v>338.271</v>
       </c>
       <c r="F22">
-        <v>350.480712890625</v>
+        <v>350.4807434082031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7535,7 +7577,7 @@
         <v>355.501</v>
       </c>
       <c r="F33">
-        <v>357.1443176269531</v>
+        <v>357.1443481445312</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7575,7 +7617,7 @@
         <v>337.144</v>
       </c>
       <c r="F35">
-        <v>332.1063537597656</v>
+        <v>332.1063842773438</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7695,7 +7737,7 @@
         <v>363.563</v>
       </c>
       <c r="F41">
-        <v>348.7877197265625</v>
+        <v>348.7876892089844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7935,7 +7977,7 @@
         <v>359.524</v>
       </c>
       <c r="F53">
-        <v>361.32275390625</v>
+        <v>361.3227844238281</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8155,7 +8197,7 @@
         <v>356.985</v>
       </c>
       <c r="F64">
-        <v>360.7233581542969</v>
+        <v>360.723388671875</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8215,7 +8257,7 @@
         <v>362.156</v>
       </c>
       <c r="F67">
-        <v>357.8462829589844</v>
+        <v>357.8462524414062</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8255,7 +8297,7 @@
         <v>356.982</v>
       </c>
       <c r="F69">
-        <v>366.5307312011719</v>
+        <v>366.53076171875</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8435,7 +8477,7 @@
         <v>337.008</v>
       </c>
       <c r="F78">
-        <v>346.2941589355469</v>
+        <v>346.2941284179688</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8655,7 +8697,7 @@
         <v>339.933</v>
       </c>
       <c r="F89">
-        <v>349.1377258300781</v>
+        <v>349.1376953125</v>
       </c>
     </row>
     <row r="90" spans="1:6">
